--- a/biology/Zoologie/Aspidodiadematoida/Aspidodiadematoida.xlsx
+++ b/biology/Zoologie/Aspidodiadematoida/Aspidodiadematoida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aspidodiadematoida sont un ordre d'oursins réguliers.
 </t>
@@ -511,11 +523,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aspidodiadematoida sont des oursins réguliers : leur test (coquille) est de forme ronde, la large bouche (« péristome ») est située au centre de la face orale (inférieure) et l'anus (« périprocte ») à l'opposé (au sommet du test, appelé « apex »), avec les orifices génitaux et le madréporite.
 Les plaques interambulacraires portent un tubercule primaire unique, perforé et crénulé. Les radioles sont creuses.
-Cet ordre est apparu au Jurassique, et compte encore quelques espèces vivantes, essentiellement abyssales[1].
+Cet ordre est apparu au Jurassique, et compte encore quelques espèces vivantes, essentiellement abyssales.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (17 septembre 2013)[2], cet ordre ne contient qu'une seule famille : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (17 septembre 2013), cet ordre ne contient qu'une seule famille : 
 famille Aspidodiadematidae (Duncan, 1889)
 genre Aspidodiadema A. Agassiz, 1878 -- 11 espèces
 genre Culozoma Vadet &amp; Slowik, 2001 †
